--- a/admin/custom/reports/exports/Full Sales By Items (Categories).xlsx
+++ b/admin/custom/reports/exports/Full Sales By Items (Categories).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Sales By Items (Categories)</t>
   </si>
@@ -44,55 +44,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2013/08/21 00:00</t>
-  </si>
-  <si>
-    <t>DIM210813009</t>
-  </si>
-  <si>
-    <t>Dimas Nuh Putra</t>
-  </si>
-  <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>2013/08/20 00:00</t>
-  </si>
-  <si>
-    <t>DIM200813002</t>
-  </si>
-  <si>
-    <t>75.000</t>
-  </si>
-  <si>
-    <t>2013/07/23 00:00</t>
-  </si>
-  <si>
-    <t>DIM230713001</t>
-  </si>
-  <si>
-    <t>250.000</t>
-  </si>
-  <si>
-    <t>DIM230713002</t>
-  </si>
-  <si>
-    <t>48.000</t>
-  </si>
-  <si>
-    <t>RICEGGGGGGG01</t>
-  </si>
-  <si>
-    <t>Rice Bran Cookies / Vanilla / NO STOCK N</t>
-  </si>
-  <si>
-    <t>OYSTER01</t>
-  </si>
-  <si>
-    <t>Oyster Mushroom Crisps (can) / Original / NO STOCK N</t>
-  </si>
-  <si>
-    <t>23.000</t>
+    <t>All Categories</t>
+  </si>
+  <si>
+    <t>600.000</t>
+  </si>
+  <si>
+    <t>-400.000</t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>Living &amp; Furniture</t>
+  </si>
+  <si>
+    <t>LFSRI192CB1310</t>
+  </si>
+  <si>
+    <t>Amadou Contemporary Stool / Classic Black / One</t>
+  </si>
+  <si>
+    <t>300.000</t>
   </si>
 </sst>
 </file>
@@ -138,7 +111,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -159,6 +132,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFbbbbbb"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -170,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -189,10 +168,16 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -495,7 +480,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -574,121 +559,64 @@
       </c>
     </row>
     <row r="6" spans="1:7" customHeight="1" ht="22">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s"/>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7" customHeight="1" ht="22">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customHeight="1" ht="22">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:7" customHeight="1" ht="22">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s"/>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" customHeight="1" ht="22">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s"/>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customHeight="1" ht="22">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s"/>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customHeight="1" ht="22">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s"/>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customHeight="1" ht="22">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8" t="s"/>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
